--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD7F74-66FE-4C40-BCFD-C73705BCA60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF3529-62AD-4F76-8337-D4FFC687D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{CAAFB2BA-8F07-4FF5-8FF9-A40254626920}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{503A1768-5AD3-46FD-8252-E30138E2C0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6C0AE-2017-4BA0-BEA2-962A0FBF5689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01BB9BA-A4AC-4BC4-B111-879F834FA012}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF3529-62AD-4F76-8337-D4FFC687D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92025AC-B363-4474-9DE0-A6897C3CAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{503A1768-5AD3-46FD-8252-E30138E2C0E7}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{18450C87-7499-4101-9C7E-F65BBDF44C93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01BB9BA-A4AC-4BC4-B111-879F834FA012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A0F92-47D4-4BF9-87C7-7155BB03A5DE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.3264339286621116</v>
+        <v>1.3828747680823572</v>
       </c>
     </row>
   </sheetData>
